--- a/output/to_publish/results4.xlsx
+++ b/output/to_publish/results4.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="results4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Dataset name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Stop criterion</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -95,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +225,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -589,14 +595,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="20" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="10" xfId="20" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="10" xfId="20" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="24" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="10" xfId="24" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="15" borderId="10" xfId="24" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="10" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1059,7 @@
       <c r="H2" s="2">
         <v>4050</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="8">
         <v>0.33937</v>
       </c>
       <c r="J2" s="2">
@@ -1069,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>351</v>
@@ -1081,136 +1095,136 @@
         <v>0.70972000000000002</v>
       </c>
       <c r="F3" s="2">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2">
         <v>11934</v>
       </c>
       <c r="H3" s="2">
-        <v>1156</v>
-      </c>
-      <c r="I3" s="3">
-        <v>9.6869999999999998E-2</v>
+        <v>4397</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.36843999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K3" s="4">
-        <v>3.7094</v>
+        <v>2.3447300000000002</v>
       </c>
       <c r="L3" s="3">
-        <v>0.70399999999999996</v>
+        <v>0.70972000000000002</v>
       </c>
       <c r="M3" s="2">
         <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>351</v>
+      </c>
+      <c r="D4" s="5">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.70972000000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5">
+        <v>11934</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3375</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.28281000000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3.7094</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M4" s="5">
+        <v>34</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="5">
         <v>351</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="5">
         <v>34</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="6">
         <v>0.70972000000000002</v>
       </c>
-      <c r="F4" s="2">
-        <v>94</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F5" s="5">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5">
         <v>11934</v>
       </c>
-      <c r="H4" s="2">
-        <v>4397</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.36843999999999999</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="H5" s="5">
+        <v>5277</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.44218000000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.4188000000000001</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.70221</v>
+      </c>
+      <c r="M5" s="5">
+        <v>34</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4">
-        <v>2.3447300000000002</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.70972000000000002</v>
-      </c>
-      <c r="M4" s="2">
-        <v>34</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>351</v>
-      </c>
-      <c r="D5" s="2">
-        <v>34</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.70972000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2">
-        <v>11934</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1156</v>
-      </c>
-      <c r="I5" s="3">
-        <v>9.6869999999999998E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>7</v>
-      </c>
-      <c r="K5" s="4">
-        <v>6.4188000000000001</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.70221</v>
-      </c>
-      <c r="M5" s="2">
-        <v>34</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1237,7 +1251,7 @@
       <c r="H7" s="2">
         <v>19632</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="8">
         <v>0.43973000000000001</v>
       </c>
       <c r="J7" s="2">
@@ -1261,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>2126</v>
@@ -1273,136 +1287,136 @@
         <v>0.18246999999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="G8" s="2">
         <v>44646</v>
       </c>
       <c r="H8" s="2">
-        <v>1806</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.045E-2</v>
+        <v>20764</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.46507999999999999</v>
       </c>
       <c r="J8" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4">
-        <v>13.474130000000001</v>
+        <v>3.9064000000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>0.18237999999999999</v>
+        <v>0.18246000000000001</v>
       </c>
       <c r="M8" s="2">
         <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2126</v>
+      </c>
+      <c r="D9" s="5">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.18246999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>86</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44646</v>
+      </c>
+      <c r="H9" s="5">
+        <v>56886</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.27416</v>
+      </c>
+      <c r="J9" s="5">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7">
+        <v>13.474130000000001</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.18237999999999999</v>
+      </c>
+      <c r="M9" s="5">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="5">
         <v>2126</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="5">
         <v>21</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="6">
         <v>0.18246999999999999</v>
       </c>
-      <c r="F9" s="2">
-        <v>314</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F10" s="5">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5">
         <v>44646</v>
       </c>
-      <c r="H9" s="2">
-        <v>20764</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.46507999999999999</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="H10" s="5">
+        <v>56940</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.2753699999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7">
+        <v>13.529159999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.18132999999999999</v>
+      </c>
+      <c r="M10" s="5">
         <v>21</v>
       </c>
-      <c r="K9" s="4">
-        <v>3.9064000000000001</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.18246000000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>21</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2126</v>
-      </c>
-      <c r="D10" s="2">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.18246999999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>77</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44646</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1617</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3.6220000000000002E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4">
-        <v>13.529159999999999</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.18132999999999999</v>
-      </c>
-      <c r="M10" s="2">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1429,7 +1443,7 @@
       <c r="H12" s="2">
         <v>4260</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <v>0.24956</v>
       </c>
       <c r="J12" s="2">
@@ -1453,7 +1467,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>569</v>
@@ -1465,136 +1479,136 @@
         <v>0.32456000000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <v>17070</v>
       </c>
       <c r="H13" s="2">
-        <v>600</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3.5150000000000001E-2</v>
+        <v>4411</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.25840999999999997</v>
       </c>
       <c r="J13" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K13" s="4">
-        <v>7.7539499999999997</v>
+        <v>2.8471000000000002</v>
       </c>
       <c r="L13" s="3">
-        <v>0.32207000000000002</v>
+        <v>0.32456000000000002</v>
       </c>
       <c r="M13" s="2">
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>569</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
+        <v>17070</v>
+      </c>
+      <c r="H14" s="5">
+        <v>8835</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.51756999999999997</v>
+      </c>
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7">
+        <v>7.7539499999999997</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.32207000000000002</v>
+      </c>
+      <c r="M14" s="5">
+        <v>30</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="5">
         <v>569</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="6">
         <v>0.32456000000000002</v>
       </c>
-      <c r="F14" s="2">
-        <v>60</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F15" s="5">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5">
         <v>17070</v>
       </c>
-      <c r="H14" s="2">
-        <v>4411</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.25840999999999997</v>
-      </c>
-      <c r="J14" s="2">
-        <v>18</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2.8471000000000002</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="H15" s="5">
+        <v>13213</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.77405000000000002</v>
+      </c>
+      <c r="J15" s="5">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7">
+        <v>11.65202</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.32396000000000003</v>
+      </c>
+      <c r="M15" s="5">
         <v>30</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>569</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="F15" s="2">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2">
-        <v>17070</v>
-      </c>
-      <c r="H15" s="2">
-        <v>540</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3.1629999999999998E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>12</v>
-      </c>
-      <c r="K15" s="4">
-        <v>11.65202</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.32396000000000003</v>
-      </c>
-      <c r="M15" s="2">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1645,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
@@ -1657,128 +1671,123 @@
         <v>5.4723499999999996</v>
       </c>
       <c r="F18" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="G18" s="2">
         <v>784000</v>
       </c>
       <c r="H18" s="2">
-        <v>59600</v>
+        <v>153658</v>
       </c>
       <c r="I18" s="3">
-        <v>7.6020000000000004E-2</v>
+        <v>0.19599</v>
       </c>
       <c r="J18" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K18" s="4">
-        <v>2.8460000000000001</v>
+        <v>2.944</v>
       </c>
       <c r="L18" s="3">
-        <v>5.30769</v>
+        <v>5.4721099999999998</v>
       </c>
       <c r="M18" s="2">
         <v>10</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>784</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F19" s="5">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5">
+        <v>784000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>64200</v>
+      </c>
+      <c r="I19" s="6">
+        <v>8.1890000000000004E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5.30769</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="5">
         <v>1000</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="5">
         <v>784</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="6">
         <v>5.4723499999999996</v>
       </c>
-      <c r="F19" s="2">
-        <v>190</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F20" s="5">
+        <v>81</v>
+      </c>
+      <c r="G20" s="5">
         <v>784000</v>
       </c>
-      <c r="H19" s="2">
-        <v>153658</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.19599</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="H20" s="5">
+        <v>68095</v>
+      </c>
+      <c r="I20" s="6">
+        <v>8.6860000000000007E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5.4662199999999999</v>
+      </c>
+      <c r="M20" s="5">
         <v>10</v>
       </c>
-      <c r="K19" s="4">
-        <v>2.944</v>
-      </c>
-      <c r="L19" s="3">
-        <v>5.4721099999999998</v>
-      </c>
-      <c r="M19" s="2">
-        <v>10</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>784</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5.4723499999999996</v>
-      </c>
-      <c r="F20" s="2">
-        <v>81</v>
-      </c>
-      <c r="G20" s="2">
-        <v>784000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>63505</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="L20" s="3">
-        <v>5.4662199999999999</v>
-      </c>
-      <c r="M20" s="2">
-        <v>10</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/to_publish/results4.xlsx
+++ b/output/to_publish/results4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>Dataset name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Stop criterion</t>
+  </si>
+  <si>
+    <t>threshold=epsilon</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,6 +614,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="15" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="15" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +994,7 @@
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1145,19 +1149,19 @@
         <v>11934</v>
       </c>
       <c r="H4" s="5">
-        <v>3375</v>
+        <v>9429</v>
       </c>
       <c r="I4" s="6">
-        <v>0.28281000000000001</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="J4" s="5">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7">
-        <v>3.7094</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.70399999999999996</v>
+        <v>12.33333</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.72345999999999999</v>
       </c>
       <c r="M4" s="5">
         <v>34</v>
@@ -1165,13 +1169,16 @@
       <c r="N4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>351</v>
@@ -1189,19 +1196,19 @@
         <v>11934</v>
       </c>
       <c r="H5" s="5">
-        <v>5277</v>
+        <v>3375</v>
       </c>
       <c r="I5" s="6">
-        <v>0.44218000000000002</v>
+        <v>0.28281000000000001</v>
       </c>
       <c r="J5" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K5" s="7">
-        <v>6.4188000000000001</v>
+        <v>3.7094</v>
       </c>
       <c r="L5" s="6">
-        <v>0.70221</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="M5" s="5">
         <v>34</v>
@@ -1210,579 +1217,952 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>351</v>
+      </c>
+      <c r="D6" s="5">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.70972000000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11934</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10139</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.84958999999999996</v>
+      </c>
+      <c r="J6" s="5">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7">
+        <v>13.34473</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.73814000000000002</v>
+      </c>
+      <c r="M6" s="5">
+        <v>34</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>351</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.70972000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>11934</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5277</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.44218000000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6.4188000000000001</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.70221</v>
+      </c>
+      <c r="M7" s="5">
+        <v>34</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>2126</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="3">
         <v>0.18246999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>346</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>19632</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I9" s="8">
         <v>0.43973000000000001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="2">
         <v>21</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K9" s="4">
         <v>3.4896500000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L9" s="3">
         <v>0.18246000000000001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M9" s="2">
         <v>21</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>2126</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <v>0.18246999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>314</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G10" s="2">
         <v>44646</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H10" s="2">
         <v>20764</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I10" s="8">
         <v>0.46507999999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J10" s="2">
         <v>21</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K10" s="4">
         <v>3.9064000000000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L10" s="3">
         <v>0.18246000000000001</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M10" s="2">
         <v>21</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C11" s="5">
         <v>2126</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D11" s="5">
         <v>21</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="6">
         <v>0.18246999999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="5">
         <v>86</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G11" s="5">
         <v>44646</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H11" s="5">
+        <v>54698</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.22515</v>
+      </c>
+      <c r="J11" s="5">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7">
+        <v>12.95955</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.19359000000000001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>21</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2126</v>
+      </c>
+      <c r="D12" s="5">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.18246999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>86</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44646</v>
+      </c>
+      <c r="H12" s="5">
         <v>56886</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I12" s="12">
         <v>1.27416</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J12" s="5">
         <v>14</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K12" s="7">
         <v>13.474130000000001</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L12" s="6">
         <v>0.18237999999999999</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M12" s="5">
         <v>21</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C13" s="5">
         <v>2126</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D13" s="5">
         <v>21</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E13" s="6">
         <v>0.18246999999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F13" s="5">
         <v>77</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G13" s="5">
         <v>44646</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H13" s="5">
+        <v>54860</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.22878</v>
+      </c>
+      <c r="J13" s="5">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7">
+        <v>13.03998</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.19319</v>
+      </c>
+      <c r="M13" s="5">
+        <v>21</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2126</v>
+      </c>
+      <c r="D14" s="5">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.18246999999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>77</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44646</v>
+      </c>
+      <c r="H14" s="5">
         <v>56940</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I14" s="12">
         <v>1.2753699999999999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J14" s="5">
         <v>14</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K14" s="7">
         <v>13.529159999999999</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L14" s="6">
         <v>0.18132999999999999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M14" s="5">
         <v>21</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>569</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>61</v>
-      </c>
-      <c r="G12" s="2">
-        <v>17070</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4260</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.24956</v>
-      </c>
-      <c r="J12" s="2">
-        <v>27</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2.68893</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.32452999999999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
-        <v>569</v>
-      </c>
-      <c r="D13" s="2">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="F13" s="2">
-        <v>60</v>
-      </c>
-      <c r="G13" s="2">
-        <v>17070</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4411</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.25840999999999997</v>
-      </c>
-      <c r="J13" s="2">
-        <v>18</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2.8471000000000002</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="M13" s="2">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <v>569</v>
-      </c>
-      <c r="D14" s="5">
-        <v>30</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.32456000000000002</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <v>17070</v>
-      </c>
-      <c r="H14" s="5">
-        <v>8835</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.51756999999999997</v>
-      </c>
-      <c r="J14" s="5">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7">
-        <v>7.7539499999999997</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.32207000000000002</v>
-      </c>
-      <c r="M14" s="5">
-        <v>30</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>569</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2">
+        <v>17070</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4260</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.24956</v>
+      </c>
+      <c r="J16" s="2">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.68893</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.32452999999999999</v>
+      </c>
+      <c r="M16" s="2">
+        <v>30</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C17" s="2">
         <v>569</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E17" s="3">
         <v>0.32456000000000002</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F17" s="2">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>17070</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4411</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.25840999999999997</v>
+      </c>
+      <c r="J17" s="2">
         <v>18</v>
       </c>
-      <c r="G15" s="5">
-        <v>17070</v>
-      </c>
-      <c r="H15" s="5">
-        <v>13213</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.77405000000000002</v>
-      </c>
-      <c r="J15" s="5">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7">
-        <v>11.65202</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.32396000000000003</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="K17" s="4">
+        <v>2.8471000000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="M17" s="2">
         <v>30</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>784</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.4723499999999996</v>
-      </c>
-      <c r="F17" s="2">
-        <v>187</v>
-      </c>
-      <c r="G17" s="2">
-        <v>784000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>150055</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.19139999999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>10</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2.3170000000000002</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5.4719499999999996</v>
-      </c>
-      <c r="M17" s="2">
-        <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>569</v>
+      </c>
+      <c r="D18" s="5">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="F18" s="5">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>784</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.4723499999999996</v>
-      </c>
-      <c r="F18" s="2">
-        <v>190</v>
-      </c>
-      <c r="G18" s="2">
-        <v>784000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>153658</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.19599</v>
-      </c>
-      <c r="J18" s="2">
-        <v>10</v>
-      </c>
-      <c r="K18" s="4">
-        <v>2.944</v>
-      </c>
-      <c r="L18" s="3">
-        <v>5.4721099999999998</v>
-      </c>
-      <c r="M18" s="2">
-        <v>10</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="5">
+        <v>17070</v>
+      </c>
+      <c r="H18" s="5">
+        <v>16197</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.94886000000000004</v>
+      </c>
+      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7">
+        <v>14.2232</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.33112999999999998</v>
+      </c>
+      <c r="M18" s="5">
+        <v>30</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5">
-        <v>1000</v>
+        <v>569</v>
       </c>
       <c r="D19" s="5">
-        <v>784</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
-        <v>5.4723499999999996</v>
+        <v>0.32456000000000002</v>
       </c>
       <c r="F19" s="5">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="G19" s="5">
-        <v>784000</v>
+        <v>17070</v>
       </c>
       <c r="H19" s="5">
-        <v>64200</v>
+        <v>8835</v>
       </c>
       <c r="I19" s="6">
-        <v>8.1890000000000004E-2</v>
+        <v>0.51756999999999997</v>
       </c>
       <c r="J19" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K19" s="7">
-        <v>2.8460000000000001</v>
+        <v>7.7539499999999997</v>
       </c>
       <c r="L19" s="6">
-        <v>5.30769</v>
+        <v>0.32207000000000002</v>
       </c>
       <c r="M19" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5">
+        <v>569</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5">
+        <v>17070</v>
+      </c>
+      <c r="H20" s="5">
+        <v>18127</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.06192</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7">
+        <v>15.97012</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.34016000000000002</v>
+      </c>
+      <c r="M20" s="5">
+        <v>30</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>569</v>
+      </c>
+      <c r="D21" s="5">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.32456000000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
+        <v>17070</v>
+      </c>
+      <c r="H21" s="5">
+        <v>13213</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.77405000000000002</v>
+      </c>
+      <c r="J21" s="5">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7">
+        <v>11.65202</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.32396000000000003</v>
+      </c>
+      <c r="M21" s="5">
+        <v>30</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
         <v>1000</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D23" s="2">
         <v>784</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E23" s="3">
         <v>5.4723499999999996</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F23" s="2">
+        <v>187</v>
+      </c>
+      <c r="G23" s="2">
+        <v>784000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>150055</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="J23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="L23" s="3">
+        <v>5.4719499999999996</v>
+      </c>
+      <c r="M23" s="2">
+        <v>10</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>784</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F24" s="2">
+        <v>190</v>
+      </c>
+      <c r="G24" s="2">
+        <v>784000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>153658</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.19599</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.944</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5.4721099999999998</v>
+      </c>
+      <c r="M24" s="2">
+        <v>10</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>784</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F25" s="5">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5">
+        <v>784000</v>
+      </c>
+      <c r="H25" s="5">
+        <v>63792</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8.1369999999999998E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="L25" s="13">
+        <v>5.3415100000000004</v>
+      </c>
+      <c r="M25" s="5">
+        <v>10</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>784</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F26" s="5">
+        <v>76</v>
+      </c>
+      <c r="G26" s="5">
+        <v>784000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>64200</v>
+      </c>
+      <c r="I26" s="6">
+        <v>8.1890000000000004E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5.30769</v>
+      </c>
+      <c r="M26" s="5">
+        <v>10</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>784</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F27" s="5">
         <v>81</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G27" s="5">
         <v>784000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H27" s="5">
+        <v>69657</v>
+      </c>
+      <c r="I27" s="6">
+        <v>8.8849999999999998E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>4</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3.617</v>
+      </c>
+      <c r="L27" s="13">
+        <v>5.3022600000000004</v>
+      </c>
+      <c r="M27" s="5">
+        <v>10</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>784</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5.4723499999999996</v>
+      </c>
+      <c r="F28" s="5">
+        <v>81</v>
+      </c>
+      <c r="G28" s="5">
+        <v>784000</v>
+      </c>
+      <c r="H28" s="5">
         <v>68095</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I28" s="6">
         <v>8.6860000000000007E-2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J28" s="5">
         <v>3</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K28" s="7">
         <v>2.8359999999999999</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L28" s="6">
         <v>5.4662199999999999</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M28" s="5">
         <v>10</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>16</v>
       </c>
     </row>
